--- a/noise_amp_1_to_6_qubits_pes.xlsx
+++ b/noise_amp_1_to_6_qubits_pes.xlsx
@@ -15,6 +15,8 @@
     <sheet name="4qbit_oracle" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="5 qubits" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="5qbit_oracle" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="6 qubits" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="6qbit_oracle" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -588,6 +590,1266 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Number of Marked Items</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>0.0005 noise level oracle calls</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>0.001 noise level oracle calls</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>0.0015 noise level oracle calls</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>0.002 noise level oracle calls</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>0.0025 noise level oracle calls</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>0.003 noise level oracle calls</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>0.0035 noise level oracle calls</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>0.004 noise level oracle calls</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>0.0045000000000000005 noise level oracle calls</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>0.005 noise level oracle calls</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>86.70520231213872</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>301.5075376884422</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>379.746835443038</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>361.4457831325302</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>359.2814371257485</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>384.6153846153846</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>392.156862745098</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>337.0786516853933</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>365.8536585365854</v>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>361.44578313253015</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>28.22865208186309</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>75.32956685499059</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>112.9943502824859</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>113.6363636363636</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>113.6363636363636</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>138.8888888888889</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>139.3728222996516</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>132.890365448505</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>123.4567901234568</v>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>126.58227848101266</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>24.37538086532603</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>69.80802792321117</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>88.49557522123894</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>88.69179600886918</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>80.16032064128257</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>78.125</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>82.13552361396304</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>80.48289738430583</v>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>89.48545861297539</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>14.09112259276656</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>30.9278350515464</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>41.55124653739612</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>47.77070063694267</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>46.43962848297213</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>46.65629860031104</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>46.36785162287481</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>46.08294930875576</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>47.543581616481774</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>11.74168297455969</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>27.10027100271003</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>35.41912632821723</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>37.12871287128713</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>36.40776699029127</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>40.10695187165776</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>38.91050583657588</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>38.860103626943</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>38.31417624521073</v>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>39.26701570680628</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>12.0627261761158</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>24.330900243309</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>31.51260504201681</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>32.43243243243244</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>31.91489361702128</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>31.57894736842105</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>31.74603174603175</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>32.75109170305677</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>32.01707577374599</v>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>30.8641975308642</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>11.40250855188141</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>21.44388849177984</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>24.75247524752476</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>26.31578947368421</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>26.78571428571428</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>28.19548872180451</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>27.49770852428964</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>27.002700270027</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>26.54867256637168</v>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>29.58579881656805</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>11.15656377835626</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>20.12072434607646</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>22.32142857142857</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>23.58490566037736</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>24.50980392156863</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>23.09468822170901</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>24.13515687851971</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>22.271714922049</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>24.50980392156863</v>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>23.885350318471335</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>11.60092807424594</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>17.8359096313912</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>19.97336884154461</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>21.00840336134453</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>20.33898305084746</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>20.67539627842867</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>21.27659574468085</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>20.90592334494773</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>20.81887578070784</v>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>20.74688796680498</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>4.570383912248629</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>7.355645457888929</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>10.37344398340249</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>11.6211504938989</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>12.29256299938537</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>12.67427122940431</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>12.36093943139679</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>12.70648030495553</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>13.23626737260093</v>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>12.682308180088777</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>4.424778761061947</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>7.155635062611807</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>9.078529278256925</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>10.47668936616029</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>11.19194180190263</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>11.51410477835348</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>11.38303927148549</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>11.648223645894</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>11.70275014628438</v>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>11.441647597254004</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>4.249893752656184</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>6.600660066006601</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>8.76424189307625</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>9.578544061302685</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>10.09591115598183</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>10.61007957559682</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>10.27221366204417</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>10.09591115598183</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>10.95890410958904</v>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>10.655301012253597</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>4.081632653061225</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>6.700167504187605</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>8.230452674897119</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>9.319664492078283</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>9.775171065493646</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>9.847365829640571</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>9.852216748768472</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>9.985022466300549</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>10.0250626566416</v>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>9.905894006934126</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>3.97219463753724</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>6.172839506172839</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>7.719027402547279</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>8.375209380234505</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>8.806693086745927</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>8.928571428571429</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>8.822232024702251</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>9.272137227630967</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>8.972633467922835</v>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>9.082652134423252</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>3.858024691358025</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>5.88754783632617</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>7.155635062611807</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>7.79423226812159</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>8.271298593879239</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>8.278145695364238</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>8.639308855291576</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>8.525149190110827</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>8.960573476702509</v>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>8.58000858000858</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>3.835826620636747</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>5.506607929515418</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>6.798096532970768</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>7.473841554559043</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>8.074283407347599</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>7.892659826361484</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>7.958615200955034</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>8.077544426494345</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>8.077544426494345</v>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>7.8064012490242</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>3.749531308586427</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>5.524861878453039</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>6.576783952647156</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>7.087172218284905</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>7.432181345224824</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>7.482229704451926</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>7.465472191116088</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>7.575757575757576</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>7.572889057175312</v>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>7.538635506973238</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>3.685277317118113</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>5.278437582475587</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>6.174745291756715</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>6.6711140760507</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>6.939625260235947</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>7.037297677691766</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>6.958942240779401</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>7.186489399928135</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>7.228044813877846</v>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>7.196833393306945</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>3.635702599527359</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>5.111167901865576</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>6.073489219556636</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>6.397952655150352</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>6.637902422834384</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>6.934812760055478</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>6.565988181221273</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>6.870491240123669</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>6.83526999316473</v>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>6.581112207963145</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>3.596475454055026</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>4.841442749939482</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>5.706134094151213</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>6.053268765133172</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>6.317119393556538</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>6.341154090044388</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>6.331117442228553</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>6.341154090044388</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>6.563833278634723</v>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>6.309148264984227</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>3.595182455509617</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>4.87685930260912</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>5.527915975677169</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>5.790387955993052</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>5.941770647653001</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>6.106870229007634</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>5.954153021732658</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>6.211180124223603</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>6.146281499692686</v>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>6.091989034419738</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>3.648303538854433</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>4.725897920604915</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>5.334755934915978</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>5.633802816901408</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>5.793742757821553</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>5.793742757821553</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>5.763688760806916</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>5.772005772005772</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>5.772005772005772</v>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>5.668934240362812</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>3.662332906061161</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>4.68055230517201</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>5.282620179609086</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>5.42740841248304</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>5.605381165919282</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>5.603810591202017</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>5.474952094169176</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>5.632216277105041</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>5.592841163310962</v>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>5.591277606933184</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>3.590019745108598</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>4.558924093913836</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>5.013787916771121</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>5.159958720330238</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>5.282620179609086</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>5.228758169934641</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>5.241090146750524</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>5.076142131979696</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>5.326231691078562</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>3.631082062454611</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>4.462293618920125</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>4.849660523763337</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>5.055611729019211</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>5.059448520111308</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>5.107252298263535</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>5.103342689461598</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>5.202913631633715</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>5.08130081300813</v>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>5.117707267144319</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>3.692080487354625</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>4.346881112801565</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>4.764173415912339</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>4.800768122899664</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>4.911591355599215</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>4.899559039686428</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>4.901960784313726</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>4.844961240310077</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>4.884004884004884</v>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>4.932182490752158</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>3.696174459434485</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>4.385964912280702</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>4.579803068468056</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>4.682744088035589</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>4.708097928436912</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>4.772130756382725</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>4.638218923933209</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>4.724781478856602</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>4.767580452920143</v>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>4.813477737665464</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>3.79003221527383</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>4.183225266680611</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>4.445432318292954</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>4.430660168365087</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>4.596644449551827</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>4.653327128897161</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>4.508566275924256</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>4.67180565288484</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>4.663091629750524</v>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>4.5892611289582375</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>3.845414343395501</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>4.222972972972973</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>4.358247984310308</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>4.400440044004401</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>4.386926957666155</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>4.458314757021846</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>4.331817197314273</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>4.355400696864112</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>4.409171075837743</v>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>4.392708104546453</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>3.837298541826554</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>4.146796599626788</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>4.129671691100557</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>4.190236748376283</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>4.250797024442083</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>4.287245444801715</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>4.301075268817204</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>4.248088360237893</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <v>4.285408185129634</v>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>4.278074866310161</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>3.923107100823852</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>4.002401440864519</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>4.091653027823241</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>4.170141784820684</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>4.171881518564873</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>4.162330905306972</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>4.157139887757223</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>4.144218814753419</v>
+      </c>
+      <c r="J32" s="2" t="n">
+        <v>4.160599126274184</v>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>4.232804232804233</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>4.021717273275689</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>4.015257980325236</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>3.997601439136518</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>4.006410256410256</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>4.048582995951417</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>3.958828186856691</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>3.950227138060439</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>3.948667324777888</v>
+      </c>
+      <c r="J33" s="2" t="n">
+        <v>4.073319755600815</v>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>3.989626969878316</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -3473,4 +4735,1264 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Number of Marked Items</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>0.0005 noise level</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>0.001 noise level</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>0.0015 noise level</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>0.002 noise level</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>0.0025 noise level</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>0.003 noise level</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>0.0035 noise level</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>0.004 noise level</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>0.0045000000000000005 noise level</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>0.005 noise level</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>14.17</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>16.41</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>21.29</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>6.279999999999999</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>6.460000000000001</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>6.510000000000001</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>6.3100000000000005</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>8.469999999999999</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>7.720000000000001</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>7.829999999999999</v>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>24.87</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>12.33</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>9.719999999999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>26.31</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>10.64</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>26.89</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>14.91</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>13.44</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>12.72</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>12.99</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>12.559999999999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>25.86</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>16.82</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>15.02</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>14.28</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>14.51</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>14.35</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>14.41</v>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>14.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>43.76</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>27.19</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>19.28</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>17.21</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>16.27</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>15.78</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>16.18</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>15.74</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>15.11</v>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>15.770000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>27.95</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>22.03</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>19.09</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>17.87</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>17.37</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>17.57</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>17.17</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>17.09</v>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>17.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>47.06</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>20.88</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>19.81</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>19.47</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>19.81</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>18.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>29.85</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>21.46</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>20.46</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>20.31</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>20.03</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>50.35</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>23.88</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>22.71</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>22.67</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>21.57</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>22.29</v>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>51.84</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>33.97</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>27.95</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>24.18</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>24.16</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>23.15</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>23.46</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>22.32</v>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>23.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>52.14</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>36.32</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>29.42</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>26.76</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>24.77</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>25.34</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>25.13</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>24.76</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>24.76</v>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>25.619999999999997</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>53.34</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>30.41</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>28.22</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>26.91</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>26.73</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>26.79</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>26.41</v>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>26.529999999999998</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>54.27</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>37.89</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>32.39</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>28.82</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>28.42</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>28.74</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>27.83</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>27.67</v>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>27.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>55.01000000000001</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>39.13</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>32.93</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>31.26</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>28.84</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>30.46</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>29.11</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>29.26</v>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>30.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>55.61000000000001</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>41.31</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>35.05</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>33.04000000000001</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>31.66</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>31.59</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>30.47</v>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>31.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>55.63</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>41.01000000000001</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>36.18</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>34.54</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>33.66</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>32.75</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>33.59</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>32.54</v>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>32.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>54.82</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>42.32</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>37.49</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>34.52</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>34.52</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>34.65</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>34.65</v>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>35.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>54.61</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>42.73</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>37.86</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>36.85</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>35.68</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>35.69</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>36.53</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>35.51000000000001</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>35.76</v>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>35.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>55.71</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>43.87</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>39.89</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>38.76</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>37.86</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>38.25</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>38.16</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>37.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>55.08</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>44.82</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>41.24</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>39.56</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>39.53</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>39.16</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>39.19</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>38.44</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>39.36</v>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>39.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>54.17</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>46.01</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>41.98</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>41.66</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>40.72</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>40.82</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>41.28</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>40.95</v>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>40.550000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>54.11</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>43.67</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>42.71</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>42.48</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>41.91</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>43.12</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>42.33</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>41.95</v>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>41.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>52.77</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>47.81</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>44.99</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>45.14</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>43.51</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>42.98</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>44.36</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>42.81</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>42.89</v>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>43.580000000000005</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>52.01</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>47.36</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>45.89</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>45.45</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>45.59</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>44.86</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>46.17</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>45.92</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>45.36</v>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>45.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>52.12</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>48.23</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>48.43</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>47.73</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>47.05</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>46.65000000000001</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>47.08</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <v>46.67</v>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>46.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>50.98</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>49.97</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>48.88</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>47.96</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>47.94</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>48.05</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>48.11</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>48.26</v>
+      </c>
+      <c r="J32" s="2" t="n">
+        <v>48.07</v>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>47.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>49.73</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>49.81</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>50.03</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>49.92</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>50.52</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>50.63</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>50.64999999999999</v>
+      </c>
+      <c r="J33" s="2" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>50.129999999999995</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>